--- a/BOM-Prototype.xlsx
+++ b/BOM-Prototype.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projects\finallyfunctional\vr-shoes-3d-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8F6E9-EA62-4398-9A1C-E57FAB84849C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06177B9F-73C8-4CC2-B87E-057293EA805E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7647867-DBAA-4F53-AE8E-AF47AE8504CB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F7647867-DBAA-4F53-AE8E-AF47AE8504CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,21 +80,9 @@
     <t>https://www.mcmaster.com/1394A41</t>
   </si>
   <si>
-    <t xml:space="preserve">6-32 by 0.5 Flat Head Screws </t>
-  </si>
-  <si>
     <t>https://www.menards.com/main/hardware/fasteners-connectors/screws/sheet-metal-screws/grip-fast-reg-6-x-1-2-phillips-drive-zinc-flat-head-sheet-metal-screw-150-count/2332671/p-1444451960741-c-8936.htm</t>
   </si>
   <si>
-    <t xml:space="preserve">6-32 by 0.75 Flat Head Screws </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-32 by 1 Flat Head Screws </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-32 by 1.5 Flat Head Screws </t>
-  </si>
-  <si>
     <t>https://www.menards.com/main/hardware/fasteners-connectors/screws/sheet-metal-screws/grip-fast-reg-6-x-3-4-phillips-drive-zinc-flat-head-sheet-metal-screw-120-count/2332673/p-1444451975698-c-8936.htm</t>
   </si>
   <si>
@@ -104,12 +92,6 @@
     <t>https://www.menards.com/main/hardware/fasteners-connectors/screws/sheet-metal-screws/grip-fast-reg-6-x-1-1-2-phillips-drive-zinc-flat-head-sheet-metal-screw-70-count/2332679/p-1444451978973-c-8936.htm</t>
   </si>
   <si>
-    <t>3M by 25 Headless Screw</t>
-  </si>
-  <si>
-    <t>https://www.fastenal.com/products/details/MX2510025A20000</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>For screwing everything together</t>
   </si>
   <si>
-    <t>For screwing each omni wheel roller together</t>
-  </si>
-  <si>
     <t>Flipsky 5065 270kv motor</t>
   </si>
   <si>
@@ -185,9 +164,6 @@
     <t>Safety Harness</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/product/B07RZVZZ39/ref=ppx_yo_dt_b_asin_title_o00_s00?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
     <t>Safety harness</t>
   </si>
   <si>
@@ -218,24 +194,6 @@
     <t>TPU filament for omni wheel rollers</t>
   </si>
   <si>
-    <t>https://us.polymaker.com/product/polymax-pc/</t>
-  </si>
-  <si>
-    <t>PolyMax PC filament</t>
-  </si>
-  <si>
-    <t>PC for gears</t>
-  </si>
-  <si>
-    <t>36x36x0.125 Rubber Mat</t>
-  </si>
-  <si>
-    <t>https://rubbersheetwarehouse.com/products/neoprene-rubber-rolls-60a-medium-hardness?variant=13724134998071</t>
-  </si>
-  <si>
-    <t>Rubber mat to give omni wheels more traction</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -248,7 +206,49 @@
     <t>Connectors for VESCs to battery</t>
   </si>
   <si>
-    <t>3 per omni wheel roller (14 omni wheels)</t>
+    <t>1623-2RS Bearings</t>
+  </si>
+  <si>
+    <t>https://www.bcprecision.com/collections/ball-bearings/products/1623-2rs-sealed-bearings-3-8-x-7-8-x-9-32-ball-bearings-pre-lubricated?variant=31340954185</t>
+  </si>
+  <si>
+    <t>Part of gearbox</t>
+  </si>
+  <si>
+    <t>Allow for shoe length adjustment</t>
+  </si>
+  <si>
+    <t>6-32 by 0.5 Flat Head Screws and Nuts</t>
+  </si>
+  <si>
+    <t>6-32 by 0.75 Flat Head Screws and Nuts</t>
+  </si>
+  <si>
+    <t>6-32 by 1 Flat Head Screws and Nuts</t>
+  </si>
+  <si>
+    <t>6-32 by 1.5 Flat Head Screws and Nuts</t>
+  </si>
+  <si>
+    <t>3M, 30mm Screws</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/91294A141/</t>
+  </si>
+  <si>
+    <t>Axle for a few of the gears</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Warthog-Universal-Harness-Pass-Thru-Buckles/dp/B074XHBCLD/ref=sr_1_1_sspa?dchild=1&amp;keywords=safety+harness&amp;qid=1590419916&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyQzhHUkxYVklCUzRIJmVuY3J5cHRlZElkPUEwNTk2MjUyTUdRU0xLS1JYNzM0JmVuY3J5cHRlZEFkSWQ9QTAxNzUwMTE2TlZOT0RXQlpEMFEmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</t>
+  </si>
+  <si>
+    <t>Rotacaster Omni Wheels</t>
+  </si>
+  <si>
+    <t>https://www.rotacasters.com/products/50mm-omnia-wheels/50mm-95a-durometer/</t>
+  </si>
+  <si>
+    <t>Omni Wheels</t>
   </si>
 </sst>
 </file>
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEECC6D-B545-4713-989F-5F6BB3EA0B27}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -647,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -655,24 +655,24 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.48</v>
+        <v>0.73</v>
       </c>
       <c r="C2">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>161.28</v>
+        <v>14.6</v>
       </c>
       <c r="E2">
-        <f>D2/D32 * 100</f>
-        <v>13.366510922945645</v>
+        <f>D2/D31 * 100</f>
+        <v>1.2758891898977538</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -680,129 +680,129 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D24" si="0">B3*C3</f>
-        <v>12.32</v>
+        <v>22.5</v>
       </c>
       <c r="E3">
-        <f>D3/D32 * 100</f>
-        <v>1.0210529177250147</v>
+        <f>D3/D31 * 100</f>
+        <v>1.9662675871711961</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
+        <f>B4*C4</f>
+        <v>19</v>
       </c>
       <c r="E4">
-        <f>D4/D32 * 100</f>
-        <v>0.23205748130113968</v>
+        <f>D4/D31*100</f>
+        <v>1.6604037402778988</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>1.1499999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>2.8</v>
       </c>
       <c r="E5">
-        <f>D5/D32 * 100</f>
-        <v>0.38123729070901519</v>
+        <f>D5/D31 * 100</f>
+        <v>0.24469107751463773</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>4.74</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>9.48</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E6">
-        <f>D6/D32 * 100</f>
-        <v>0.78568032954814437</v>
+        <f>D6/D31 * 100</f>
+        <v>0.40199248448833336</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>3.2</v>
+        <v>4.74</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>9.48</v>
       </c>
       <c r="E7">
-        <f>D7/D32 * 100</f>
-        <v>0.2652085500584454</v>
+        <f>D7/D31 * 100</f>
+        <v>0.82845407672813065</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>3.2</v>
@@ -815,19 +815,19 @@
         <v>3.2</v>
       </c>
       <c r="E8">
-        <f>D8/D32 * 100</f>
-        <v>0.2652085500584454</v>
+        <f>D8/D31 * 100</f>
+        <v>0.27964694573101456</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>3.2</v>
@@ -840,19 +840,19 @@
         <v>3.2</v>
       </c>
       <c r="E9">
-        <f>D9/D32 * 100</f>
-        <v>0.2652085500584454</v>
+        <f>D9/D31 * 100</f>
+        <v>0.27964694573101456</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>3.2</v>
@@ -865,400 +865,400 @@
         <v>3.2</v>
       </c>
       <c r="E10">
-        <f>D10/D32 * 100</f>
-        <v>0.2652085500584454</v>
+        <f>D10/D31 * 100</f>
+        <v>0.27964694573101456</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>3.2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="E11">
+        <f>D11/D31 * 100</f>
+        <v>0.27964694573101456</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11">
-        <v>0.3548</v>
-      </c>
-      <c r="C11">
-        <v>112</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>39.7376</v>
-      </c>
-      <c r="E11">
-        <f>D11/D32 * 100</f>
-        <v>3.2933597746257743</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B12">
-        <v>50.91</v>
+        <v>5.74</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>203.64</v>
+        <v>5.74</v>
       </c>
       <c r="E12">
-        <f>D12/D32 * 100</f>
-        <v>16.877209104344317</v>
+        <f>D12/D31 * 100</f>
+        <v>0.50161670890500742</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>57.34</v>
+        <v>50.91</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>229.36</v>
+        <v>203.64</v>
       </c>
       <c r="E13">
-        <f>D13/D32 * 100</f>
-        <v>19.008822825439072</v>
+        <f>D13/D31 * 100</f>
+        <v>17.796032508957438</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>44.8</v>
+        <v>57.34</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>134.39999999999998</v>
+        <v>229.36</v>
       </c>
       <c r="E14">
-        <f>D14/D32 * 100</f>
-        <v>11.138759102454705</v>
+        <f>D14/D31 * 100</f>
+        <v>20.043694835270472</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>5.08</v>
+        <v>44.8</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>5.08</v>
+        <v>134.39999999999998</v>
       </c>
       <c r="E15">
-        <f>D15/D32 * 100</f>
-        <v>0.42101857321778202</v>
+        <f>D15/D31 * 100</f>
+        <v>11.74517172070261</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>45.08</v>
+        <v>5.08</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>90.16</v>
+        <v>5.08</v>
       </c>
       <c r="E16">
-        <f>D16/D32 * 100</f>
-        <v>7.4722508978966982</v>
+        <f>D16/D31 * 100</f>
+        <v>0.44393952634798556</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>10.62</v>
+        <v>45.08</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>10.62</v>
+        <v>90.16</v>
       </c>
       <c r="E17">
-        <f>D17/D32 * 100</f>
-        <v>0.8801608755064656</v>
+        <f>D17/D31 * 100</f>
+        <v>7.8790526959713354</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>43.8</v>
+        <v>10.62</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>43.8</v>
+        <v>10.62</v>
       </c>
       <c r="E18">
-        <f>D18/D32 * 100</f>
-        <v>3.6300420289249709</v>
+        <f>D18/D31 * 100</f>
+        <v>0.9280783011448045</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B19">
-        <v>16.59</v>
+        <v>29.99</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>16.59</v>
+        <v>29.99</v>
       </c>
       <c r="E19">
-        <f>D19/D32 * 100</f>
-        <v>1.3749405767092528</v>
+        <f>D19/D31 * 100</f>
+        <v>2.6208162195228519</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>28.99</v>
+        <v>16.59</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>86.97</v>
+        <v>16.59</v>
       </c>
       <c r="E20">
-        <f>D20/D32 * 100</f>
-        <v>7.2078711245571858</v>
+        <f>D20/D31 * 100</f>
+        <v>1.4497946342742285</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B21">
-        <v>29.99</v>
+        <v>28.99</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>86.97</v>
       </c>
       <c r="E21">
-        <f>D21/D32 * 100</f>
-        <v>2.4855013800789925</v>
+        <f>D21/D31 * 100</f>
+        <v>7.6002796469457303</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="E22">
-        <f>D22/D32 * 100</f>
-        <v>3.3142780990116347</v>
+        <f>D22/D31 * 100</f>
+        <v>2.6208162195228519</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B23">
+        <v>8.99</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>17.98</v>
+      </c>
+      <c r="E23">
+        <f>D23/D31*100</f>
+        <v>1.571266276326138</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="E23">
-        <f>D23/D32 * 100</f>
-        <v>4.5582719541295305</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24">
-        <v>8.99</v>
+        <v>9.9</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>17.98</v>
+        <v>198</v>
       </c>
       <c r="E24">
-        <f>D24/D32*100</f>
-        <v>1.4901405406408899</v>
+        <f>D24/D31*100</f>
+        <v>17.303154767106523</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
         <f>SUM(D2:D24)</f>
-        <v>1206.5975999999998</v>
+        <v>1144.3000000000002</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{5A713AEA-40CE-4D49-980C-AEEE61031616}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{5A713AEA-40CE-4D49-980C-AEEE61031616}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{343AFD06-BFA5-48A5-961B-30A3280EC2FF}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{2F80875A-8466-4A96-B2A4-FBBC94C0EAD4}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{2C068039-3E53-4331-8165-D3E2A3C1628C}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{8AEBF514-CAFD-42A1-A0A6-7AEB5C4EC8E9}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{72B89350-D523-40D6-82AE-4D97DC1CE84F}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{570C6D3E-EDE6-4C16-A220-E6CDFD15C351}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{95960E4C-5D04-44FD-B4CE-AD4FC6A623E6}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{274741FB-0D0A-40C2-83FE-753CCCDDC2EB}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{FB5E4610-D757-4F46-9A95-730EC2F5C4EF}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{9F45B82A-C65C-413F-B359-7700CA2CE4B8}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{9392955D-C4B1-4ACE-8BD0-1B8E08AEAE8B}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{1D181389-E3A6-4B3B-91E0-6D5ADEB2EF13}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{3189F14C-BA25-4591-A4A8-2108B646D3A0}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{E000D7A5-68C3-4BCD-B400-7FA42ABAD067}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{96494C17-15CE-45E6-A4C7-E3D6259AFC2C}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{D7DD1FB4-369B-4250-A586-3C5FECA4249C}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{9D6C14E6-807C-4C6C-A93B-59A78676C0E2}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{E6433A00-6DBE-4B40-8918-C5C9FF8D7C75}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{1D5FFBA1-5A46-43E0-8D57-A9A9F69A2979}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{E3D813CB-148A-4FE3-8659-A741A9147437}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{F519FEBD-890F-4DBA-9801-15AD4B1C0C93}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{D3E488C0-CB80-4E7B-BB68-A0C01CABE993}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{2C068039-3E53-4331-8165-D3E2A3C1628C}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{8AEBF514-CAFD-42A1-A0A6-7AEB5C4EC8E9}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{72B89350-D523-40D6-82AE-4D97DC1CE84F}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{570C6D3E-EDE6-4C16-A220-E6CDFD15C351}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{95960E4C-5D04-44FD-B4CE-AD4FC6A623E6}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{274741FB-0D0A-40C2-83FE-753CCCDDC2EB}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{9F45B82A-C65C-413F-B359-7700CA2CE4B8}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{9392955D-C4B1-4ACE-8BD0-1B8E08AEAE8B}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{1D181389-E3A6-4B3B-91E0-6D5ADEB2EF13}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{3189F14C-BA25-4591-A4A8-2108B646D3A0}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{E000D7A5-68C3-4BCD-B400-7FA42ABAD067}"/>
+    <hyperlink ref="F18" r:id="rId15" xr:uid="{96494C17-15CE-45E6-A4C7-E3D6259AFC2C}"/>
+    <hyperlink ref="F20" r:id="rId16" xr:uid="{9D6C14E6-807C-4C6C-A93B-59A78676C0E2}"/>
+    <hyperlink ref="F21" r:id="rId17" xr:uid="{E6433A00-6DBE-4B40-8918-C5C9FF8D7C75}"/>
+    <hyperlink ref="F22" r:id="rId18" xr:uid="{1D5FFBA1-5A46-43E0-8D57-A9A9F69A2979}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{D3E488C0-CB80-4E7B-BB68-A0C01CABE993}"/>
+    <hyperlink ref="F4" r:id="rId20" xr:uid="{6D85F88D-0274-47E0-ABB6-8DBDA4E478F3}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{D2A796BF-9105-4BB5-A0E8-E4085260DE68}"/>
+    <hyperlink ref="F19" r:id="rId22" display="https://www.amazon.com/Warthog-Universal-Harness-Pass-Thru-Buckles/dp/B074XHBCLD/ref=sr_1_1_sspa?dchild=1&amp;keywords=safety+harness&amp;qid=1590419916&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyQzhHUkxYVklCUzRIJmVuY3J5cHRlZElkPUEwNTk2MjUyTUdRU0xLS1JYNzM0JmVuY3J5cHRlZEFkSWQ9QTAxNzUwMTE2TlZOT0RXQlpEMFEmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl" xr:uid="{786BF7EF-DB9C-4584-B8E1-8EA0F58FD6C2}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{DCBC7600-BBBA-4F11-B78A-4CC7413A915D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId24"/>
